--- a/entities.xlsx
+++ b/entities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzang/workspace/musketeers/uchuang/uc-game-report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B01BE7-A9A5-A24F-82ED-405274045DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D46F1-3F4D-4949-8BF1-E79307558A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36340" yWindow="1760" windowWidth="33600" windowHeight="18880" tabRatio="783" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Label</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>处罚时长</t>
+  </si>
+  <si>
+    <t>punishRuleUid</t>
+  </si>
+  <si>
+    <t>处罚规则</t>
   </si>
 </sst>
 </file>
@@ -1286,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6731D44-3D99-0C4C-8F9E-89CCFFC1E92A}">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1806,18 +1812,20 @@
     </row>
     <row r="13" spans="1:30" ht="16">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1844,18 +1852,20 @@
     </row>
     <row r="14" spans="1:30" ht="16">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1881,13 +1891,26 @@
       <c r="AD14" s="3"/>
     </row>
     <row r="15" spans="1:30" ht="16">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -1906,21 +1929,13 @@
       <c r="AD15" s="3"/>
     </row>
     <row r="16" spans="1:30" ht="16">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1939,11 +1954,21 @@
       <c r="AD16" s="3"/>
     </row>
     <row r="17" spans="1:30" ht="16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -2059,11 +2084,34 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="1:30" ht="16">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
